--- a/Sequenchel Objects.xlsx
+++ b/Sequenchel Objects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\VisualStudio2012\Sequenchel\Sequenchel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\VisualStudio2012\Sequenchel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Field</t>
   </si>
@@ -51,9 +51,6 @@
     <t>RelationField</t>
   </si>
   <si>
-    <t>RelatedField</t>
-  </si>
-  <si>
     <t>RelatedFieldList</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>Integer</t>
+  </si>
+  <si>
+    <t>RelatedFieldName</t>
+  </si>
+  <si>
+    <t>RelatedFieldAlias</t>
+  </si>
+  <si>
+    <t>Alias of Display field in related table</t>
   </si>
 </sst>
 </file>
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,13 +565,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,21 +590,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,10 +634,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,62 +656,62 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -713,112 +719,123 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
+      <c r="C31" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -842,83 +859,83 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
